--- a/cases/breast.xlsx
+++ b/cases/breast.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Repositories\breast.dearfad.com\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\GitHub\breast.dearfad.com\cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9B656B-BD6B-4ADE-A0DB-DC56B2D55700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9C0114-DB72-4E2F-9E97-A12ED4F1AAEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="765" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,38 +55,6 @@
   </si>
   <si>
     <t>prompt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>question</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>answer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初步诊断是什么?此病的原因是什么?治疗方法正确的是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该病的诊断是什么?下一步该怎么治疗?高发的年龄段是什么</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大夫这是什么病啊?这个病会死人么?下一步该怎么治疗啊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乳腺炎,乳腺腺瘤,乳腺癌,乳腺增生;细菌感染,遗传因素,外伤导致,乳腺癌;手术治疗,抗菌药物,定期复查,增生药物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乳腺纤维腺瘤,乳腺增生,副乳腺,乳腺癌;手术,药物治疗,局部按摩,切开引流;20-25岁,15-20岁,10-15岁,40-50岁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乳腺增生,乳腺腺瘤,乳腺癌,乳房肉瘤;不会,会的,不知道;药物治疗,手术治疗,乳房切除,切开引流</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -472,28 +440,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="50" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="21.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" style="1" customWidth="1"/>
+    <col min="1" max="2" width="21.53125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.53125" style="1" customWidth="1"/>
     <col min="4" max="4" width="93.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="43.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="36.109375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="1"/>
+    <col min="5" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
@@ -501,71 +467,47 @@
       <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="3" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="4" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
